--- a/ods/25-KW11 Time-Sheet.xlsx
+++ b/ods/25-KW11 Time-Sheet.xlsx
@@ -1125,8 +1125,8 @@
   </sheetPr>
   <dimension ref="A1:M97"/>
   <sheetViews>
-    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="pageBreakPreview" topLeftCell="A22" colorId="64" zoomScale="149" zoomScaleNormal="100" zoomScalePageLayoutView="149" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H25" activeCellId="0" sqref="H25"/>
+    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="pageBreakPreview" topLeftCell="B2" colorId="64" zoomScale="149" zoomScaleNormal="100" zoomScalePageLayoutView="149" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H38" activeCellId="0" sqref="H38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="11.3359375" defaultRowHeight="12.75" customHeight="1" zeroHeight="0" outlineLevelRow="0"/>
@@ -1515,7 +1515,7 @@
       </c>
       <c r="B24" s="122" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 5OG IBN Feldgeräte</t>
+          <t xml:space="preserve"> 5OG IBN Feldgeräte EnOcean &amp; Modbus &amp; SMI</t>
         </is>
       </c>
       <c r="C24" s="102" t="n"/>
@@ -1524,7 +1524,7 @@
       <c r="F24" s="102" t="n"/>
       <c r="G24" s="103" t="n"/>
       <c r="H24" s="123" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I24" s="123" t="n"/>
       <c r="J24" s="123" t="n"/>
@@ -1535,12 +1535,12 @@
     <row r="25" ht="19.5" customHeight="1" s="69">
       <c r="A25" s="121" t="inlineStr">
         <is>
-          <t>TH3&amp;4</t>
+          <t>TH1</t>
         </is>
       </c>
       <c r="B25" s="122" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3OG VSR MP-Kalibrierung &amp; LogData Dokumentation V-nom</t>
+          <t xml:space="preserve"> 5OG Mängelbeseitigung und Schaltschrank – Revision</t>
         </is>
       </c>
       <c r="C25" s="102" t="n"/>
@@ -1548,7 +1548,9 @@
       <c r="E25" s="102" t="n"/>
       <c r="F25" s="102" t="n"/>
       <c r="G25" s="103" t="n"/>
-      <c r="H25" s="123" t="n"/>
+      <c r="H25" s="123" t="n">
+        <v>4</v>
+      </c>
       <c r="I25" s="123" t="n"/>
       <c r="J25" s="123" t="n"/>
       <c r="K25" s="123" t="n"/>
@@ -1561,9 +1563,9 @@
           <t>TH1</t>
         </is>
       </c>
-      <c r="B26" s="101" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 4OG Modbus 2te Linie Nachrüstung &amp; Implementierung</t>
+      <c r="B26" s="122" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 4OG Bacnet Linzenz Controller eingesetzt &amp; IBN</t>
         </is>
       </c>
       <c r="C26" s="102" t="n"/>
@@ -1571,7 +1573,9 @@
       <c r="E26" s="102" t="n"/>
       <c r="F26" s="102" t="n"/>
       <c r="G26" s="103" t="n"/>
-      <c r="H26" s="123" t="n"/>
+      <c r="H26" s="123" t="n">
+        <v>2</v>
+      </c>
       <c r="I26" s="123" t="n"/>
       <c r="J26" s="123" t="n"/>
       <c r="K26" s="123" t="n"/>
@@ -1581,12 +1585,12 @@
     <row r="27" ht="19.5" customHeight="1" s="69">
       <c r="A27" s="100" t="inlineStr">
         <is>
-          <t>TH3</t>
+          <t>TH1</t>
         </is>
       </c>
       <c r="B27" s="122" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 4OG DALI &amp; Beleuchtungzonen Testlauf</t>
+          <t xml:space="preserve"> 5OG DALI &amp; Beleuchtungzonen Testlauf</t>
         </is>
       </c>
       <c r="C27" s="102" t="n"/>
@@ -1594,7 +1598,9 @@
       <c r="E27" s="102" t="n"/>
       <c r="F27" s="102" t="n"/>
       <c r="G27" s="103" t="n"/>
-      <c r="H27" s="104" t="n"/>
+      <c r="H27" s="104" t="n">
+        <v>3</v>
+      </c>
       <c r="I27" s="123" t="n"/>
       <c r="J27" s="123" t="n"/>
       <c r="K27" s="123" t="n"/>
@@ -1604,12 +1610,12 @@
     <row r="28" ht="19.5" customHeight="1" s="69">
       <c r="A28" s="100" t="inlineStr">
         <is>
-          <t>TH4</t>
+          <t>TH2</t>
         </is>
       </c>
       <c r="B28" s="122" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 4OG DALI &amp; Beleuchtungzonen Testlauf</t>
+          <t xml:space="preserve"> 5OG DALI &amp; Beleuchtungzonen Testlauf</t>
         </is>
       </c>
       <c r="C28" s="102" t="n"/>
@@ -1617,7 +1623,9 @@
       <c r="E28" s="102" t="n"/>
       <c r="F28" s="102" t="n"/>
       <c r="G28" s="103" t="n"/>
-      <c r="H28" s="104" t="n"/>
+      <c r="H28" s="104" t="n">
+        <v>3</v>
+      </c>
       <c r="I28" s="123" t="n"/>
       <c r="J28" s="123" t="n"/>
       <c r="K28" s="123" t="n"/>
@@ -1658,7 +1666,7 @@
         </is>
       </c>
       <c r="E30" s="109" t="n">
-        <v>0.84375</v>
+        <v>1.010416666666667</v>
       </c>
       <c r="F30" s="125">
         <f>(MOD(E30-C30,1)*24)</f>
@@ -1748,7 +1756,9 @@
       <c r="E34" s="102" t="n"/>
       <c r="F34" s="102" t="n"/>
       <c r="G34" s="103" t="n"/>
-      <c r="H34" s="104" t="n"/>
+      <c r="H34" s="104" t="n">
+        <v>2</v>
+      </c>
       <c r="I34" s="104" t="n"/>
       <c r="J34" s="104" t="n"/>
       <c r="K34" s="104" t="n"/>
@@ -1771,7 +1781,9 @@
       <c r="E35" s="102" t="n"/>
       <c r="F35" s="102" t="n"/>
       <c r="G35" s="103" t="n"/>
-      <c r="H35" s="104" t="n"/>
+      <c r="H35" s="104" t="n">
+        <v>2</v>
+      </c>
       <c r="I35" s="104" t="n"/>
       <c r="J35" s="104" t="n"/>
       <c r="K35" s="104" t="n"/>
@@ -1794,7 +1806,9 @@
       <c r="E36" s="102" t="n"/>
       <c r="F36" s="102" t="n"/>
       <c r="G36" s="103" t="n"/>
-      <c r="H36" s="104" t="n"/>
+      <c r="H36" s="104" t="n">
+        <v>2</v>
+      </c>
       <c r="I36" s="104" t="n"/>
       <c r="J36" s="104" t="n"/>
       <c r="K36" s="104" t="n"/>
@@ -1817,7 +1831,9 @@
       <c r="E37" s="102" t="n"/>
       <c r="F37" s="102" t="n"/>
       <c r="G37" s="103" t="n"/>
-      <c r="H37" s="104" t="n"/>
+      <c r="H37" s="104" t="n">
+        <v>2</v>
+      </c>
       <c r="I37" s="104" t="n"/>
       <c r="J37" s="104" t="n"/>
       <c r="K37" s="104" t="n"/>
@@ -1840,7 +1856,9 @@
       <c r="E38" s="102" t="n"/>
       <c r="F38" s="102" t="n"/>
       <c r="G38" s="103" t="n"/>
-      <c r="H38" s="104" t="n"/>
+      <c r="H38" s="104" t="n">
+        <v>1</v>
+      </c>
       <c r="I38" s="104" t="n"/>
       <c r="J38" s="104" t="n"/>
       <c r="K38" s="104" t="n"/>
@@ -1873,7 +1891,7 @@
         </is>
       </c>
       <c r="C40" s="109" t="n">
-        <v>0.375</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="D40" s="110" t="inlineStr">
         <is>
@@ -1881,7 +1899,7 @@
         </is>
       </c>
       <c r="E40" s="109" t="n">
-        <v>0.9375</v>
+        <v>0.8541666666666666</v>
       </c>
       <c r="F40" s="125">
         <f>(MOD(E40-C40,1)*24)</f>
@@ -1963,7 +1981,7 @@
       </c>
       <c r="B44" s="128" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 5OG Schaltschrank Mängelbeseitigung</t>
+          <t xml:space="preserve"> 6OG Kabelzug VSR Zuluft und Schaltschrank korrektur</t>
         </is>
       </c>
       <c r="C44" s="102" t="n"/>
@@ -1971,7 +1989,9 @@
       <c r="E44" s="102" t="n"/>
       <c r="F44" s="102" t="n"/>
       <c r="G44" s="103" t="n"/>
-      <c r="H44" s="104" t="n"/>
+      <c r="H44" s="104" t="n">
+        <v>1</v>
+      </c>
       <c r="I44" s="104" t="n"/>
       <c r="J44" s="104" t="n"/>
       <c r="K44" s="104" t="n"/>
@@ -1986,7 +2006,7 @@
       </c>
       <c r="B45" s="128" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 5OG SMI &amp; Jalousie Test und Dokumentation</t>
+          <t xml:space="preserve"> 2OG MP-Bus Linie ergänzt und Programmiert + Schalts. Revi </t>
         </is>
       </c>
       <c r="C45" s="102" t="n"/>
@@ -1994,7 +2014,9 @@
       <c r="E45" s="102" t="n"/>
       <c r="F45" s="102" t="n"/>
       <c r="G45" s="103" t="n"/>
-      <c r="H45" s="104" t="n"/>
+      <c r="H45" s="104" t="n">
+        <v>2</v>
+      </c>
       <c r="I45" s="104" t="n"/>
       <c r="J45" s="104" t="n"/>
       <c r="K45" s="104" t="n"/>
@@ -2004,12 +2026,12 @@
     <row r="46" ht="19.5" customHeight="1" s="69">
       <c r="A46" s="121" t="inlineStr">
         <is>
-          <t>TH2</t>
+          <t xml:space="preserve">TH1 </t>
         </is>
       </c>
       <c r="B46" s="128" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 5OG SMI &amp; Jalousie Test und Dokumentation</t>
+          <t xml:space="preserve"> 3OG MP-Bus Linie ergänzt und Programmiert + Schalts. Revi </t>
         </is>
       </c>
       <c r="C46" s="102" t="n"/>
@@ -2017,7 +2039,9 @@
       <c r="E46" s="102" t="n"/>
       <c r="F46" s="102" t="n"/>
       <c r="G46" s="103" t="n"/>
-      <c r="H46" s="104" t="n"/>
+      <c r="H46" s="104" t="n">
+        <v>2</v>
+      </c>
       <c r="I46" s="104" t="n"/>
       <c r="J46" s="104" t="n"/>
       <c r="K46" s="104" t="n"/>
@@ -2027,12 +2051,12 @@
     <row r="47" ht="19.5" customHeight="1" s="69">
       <c r="A47" s="121" t="inlineStr">
         <is>
-          <t xml:space="preserve">TH1&amp;2 </t>
-        </is>
-      </c>
-      <c r="B47" s="101" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 5OG Kalibrierung EnOcean Sensorik &amp; dokumentation</t>
+          <t xml:space="preserve">TH2 </t>
+        </is>
+      </c>
+      <c r="B47" s="128" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3OG MP-Bus Linie ergänzt und Programmiert + Schalts. Revi </t>
         </is>
       </c>
       <c r="C47" s="102" t="n"/>
@@ -2040,7 +2064,9 @@
       <c r="E47" s="102" t="n"/>
       <c r="F47" s="102" t="n"/>
       <c r="G47" s="103" t="n"/>
-      <c r="H47" s="104" t="n"/>
+      <c r="H47" s="104" t="n">
+        <v>2</v>
+      </c>
       <c r="I47" s="104" t="n"/>
       <c r="J47" s="104" t="n"/>
       <c r="K47" s="104" t="n"/>
@@ -2176,9 +2202,9 @@
           <t>TH1</t>
         </is>
       </c>
-      <c r="B54" s="122" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 5OG Kabelsuche</t>
+      <c r="B54" s="101" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 4OG DALI Testlauf und Reparatur DALI Präsenzmelder</t>
         </is>
       </c>
       <c r="C54" s="102" t="n"/>
@@ -2186,7 +2212,9 @@
       <c r="E54" s="102" t="n"/>
       <c r="F54" s="102" t="n"/>
       <c r="G54" s="103" t="n"/>
-      <c r="H54" s="123" t="n"/>
+      <c r="H54" s="123" t="n">
+        <v>6</v>
+      </c>
       <c r="I54" s="123" t="n"/>
       <c r="J54" s="123" t="n"/>
       <c r="K54" s="123" t="n"/>
@@ -2201,7 +2229,7 @@
       </c>
       <c r="B55" s="101" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 5OG Kalibrierung EnOcean Sensorik</t>
+          <t xml:space="preserve"> 4OG Dokumentation</t>
         </is>
       </c>
       <c r="C55" s="102" t="n"/>
@@ -2209,7 +2237,9 @@
       <c r="E55" s="102" t="n"/>
       <c r="F55" s="102" t="n"/>
       <c r="G55" s="103" t="n"/>
-      <c r="H55" s="123" t="n"/>
+      <c r="H55" s="123" t="n">
+        <v>0.5</v>
+      </c>
       <c r="I55" s="123" t="n"/>
       <c r="J55" s="123" t="n"/>
       <c r="K55" s="123" t="n"/>
@@ -2217,16 +2247,8 @@
       <c r="M55" s="105" t="n"/>
     </row>
     <row r="56" ht="19.5" customHeight="1" s="69">
-      <c r="A56" s="121" t="inlineStr">
-        <is>
-          <t>TH1</t>
-        </is>
-      </c>
-      <c r="B56" s="101" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 6OG Kalibrierung EnOcean Sensorik</t>
-        </is>
-      </c>
+      <c r="A56" s="121" t="n"/>
+      <c r="B56" s="101" t="n"/>
       <c r="C56" s="102" t="n"/>
       <c r="D56" s="102" t="n"/>
       <c r="E56" s="102" t="n"/>
@@ -2282,7 +2304,7 @@
         </is>
       </c>
       <c r="C59" s="109" t="n">
-        <v>0.375</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="D59" s="110" t="inlineStr">
         <is>
@@ -2985,7 +3007,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J18"/>
+  <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3058,7 +3080,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 5OG IBN Feldgeräte</t>
+          <t xml:space="preserve"> 5OG IBN Feldgeräte EnOcean &amp; Modbus &amp; SMI</t>
         </is>
       </c>
       <c r="D2" t="inlineStr"/>
@@ -3077,11 +3099,7 @@
           <t>Yes</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>10.03.2025</t>
-        </is>
-      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr">
         <is>
           <t>08:00</t>
@@ -3106,7 +3124,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3OG VSR MP-Kalibrierung &amp; LogData Dokumentation V-nom</t>
+          <t xml:space="preserve"> 5OG Mängelbeseitigung und Schaltschrank – Revision</t>
         </is>
       </c>
       <c r="D3" t="inlineStr"/>
@@ -3117,7 +3135,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>TH3&amp;4</t>
+          <t>TH1</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -3125,11 +3143,7 @@
           <t>Yes</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>10.03.2025</t>
-        </is>
-      </c>
+      <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr">
         <is>
           <t>08:00</t>
@@ -3154,7 +3168,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 4OG Modbus 2te Linie Nachrüstung &amp; Implementierung</t>
+          <t xml:space="preserve"> 4OG Bacnet Linzenz Controller eingesetzt &amp; IBN</t>
         </is>
       </c>
       <c r="D4" t="inlineStr"/>
@@ -3173,11 +3187,7 @@
           <t>Yes</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>10.03.2025</t>
-        </is>
-      </c>
+      <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr">
         <is>
           <t>08:00</t>
@@ -3202,7 +3212,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 4OG DALI &amp; Beleuchtungzonen Testlauf</t>
+          <t xml:space="preserve"> 5OG DALI &amp; Beleuchtungzonen Testlauf</t>
         </is>
       </c>
       <c r="D5" t="inlineStr"/>
@@ -3213,7 +3223,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>TH3</t>
+          <t>TH1</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -3221,11 +3231,7 @@
           <t>Yes</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>10.03.2025</t>
-        </is>
-      </c>
+      <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr">
         <is>
           <t>08:00</t>
@@ -3250,7 +3256,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 4OG DALI &amp; Beleuchtungzonen Testlauf</t>
+          <t xml:space="preserve"> 5OG DALI &amp; Beleuchtungzonen Testlauf</t>
         </is>
       </c>
       <c r="D6" t="inlineStr"/>
@@ -3261,7 +3267,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>TH4</t>
+          <t>TH2</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -3269,11 +3275,7 @@
           <t>Yes</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>10.03.2025</t>
-        </is>
-      </c>
+      <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr">
         <is>
           <t>08:00</t>
@@ -3317,11 +3319,7 @@
           <t>Yes</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>11.03.2025</t>
-        </is>
-      </c>
+      <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr">
         <is>
           <t>08:00</t>
@@ -3365,11 +3363,7 @@
           <t>Yes</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>11.03.2025</t>
-        </is>
-      </c>
+      <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr">
         <is>
           <t>08:00</t>
@@ -3413,11 +3407,7 @@
           <t>Yes</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>11.03.2025</t>
-        </is>
-      </c>
+      <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr">
         <is>
           <t>08:00</t>
@@ -3461,11 +3451,7 @@
           <t>Yes</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>11.03.2025</t>
-        </is>
-      </c>
+      <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr">
         <is>
           <t>08:00</t>
@@ -3509,11 +3495,7 @@
           <t>Yes</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>11.03.2025</t>
-        </is>
-      </c>
+      <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr">
         <is>
           <t>08:00</t>
@@ -3538,7 +3520,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 5OG Schaltschrank Mängelbeseitigung</t>
+          <t xml:space="preserve"> 6OG Kabelzug VSR Zuluft und Schaltschrank korrektur</t>
         </is>
       </c>
       <c r="D12" t="inlineStr"/>
@@ -3557,11 +3539,7 @@
           <t>Yes</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>12.03.2025</t>
-        </is>
-      </c>
+      <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr">
         <is>
           <t>08:00</t>
@@ -3586,7 +3564,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 5OG SMI &amp; Jalousie Test und Dokumentation</t>
+          <t xml:space="preserve"> 2OG MP-Bus Linie ergänzt und Programmiert + Schalts. Revi </t>
         </is>
       </c>
       <c r="D13" t="inlineStr"/>
@@ -3605,11 +3583,7 @@
           <t>Yes</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>12.03.2025</t>
-        </is>
-      </c>
+      <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr">
         <is>
           <t>08:00</t>
@@ -3634,7 +3608,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 5OG SMI &amp; Jalousie Test und Dokumentation</t>
+          <t xml:space="preserve"> 3OG MP-Bus Linie ergänzt und Programmiert + Schalts. Revi </t>
         </is>
       </c>
       <c r="D14" t="inlineStr"/>
@@ -3645,7 +3619,7 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>TH2</t>
+          <t xml:space="preserve">TH1 </t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
@@ -3653,11 +3627,7 @@
           <t>Yes</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>12.03.2025</t>
-        </is>
-      </c>
+      <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr">
         <is>
           <t>08:00</t>
@@ -3682,7 +3652,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 5OG Kalibrierung EnOcean Sensorik &amp; dokumentation</t>
+          <t xml:space="preserve"> 3OG MP-Bus Linie ergänzt und Programmiert + Schalts. Revi </t>
         </is>
       </c>
       <c r="D15" t="inlineStr"/>
@@ -3693,7 +3663,7 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t xml:space="preserve">TH1&amp;2 </t>
+          <t xml:space="preserve">TH2 </t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
@@ -3701,11 +3671,7 @@
           <t>Yes</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>12.03.2025</t>
-        </is>
-      </c>
+      <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr">
         <is>
           <t>08:00</t>
@@ -3730,7 +3696,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 5OG Kabelsuche</t>
+          <t xml:space="preserve"> 4OG DALI Testlauf und Reparatur DALI Präsenzmelder</t>
         </is>
       </c>
       <c r="D16" t="inlineStr"/>
@@ -3749,11 +3715,7 @@
           <t>Yes</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>13.03.2025</t>
-        </is>
-      </c>
+      <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr">
         <is>
           <t>08:00</t>
@@ -3778,7 +3740,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 5OG Kalibrierung EnOcean Sensorik</t>
+          <t xml:space="preserve"> 4OG Dokumentation</t>
         </is>
       </c>
       <c r="D17" t="inlineStr"/>
@@ -3797,65 +3759,13 @@
           <t>Yes</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>13.03.2025</t>
-        </is>
-      </c>
+      <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr">
         <is>
           <t>08:00</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>NEO - Schönhauser Allee 9</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t xml:space="preserve">      yDh-embedded Inh. Danny Heinicke</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 6OG Kalibrierung EnOcean Sensorik</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>ydh-embedded@posteo.de</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>TH1</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>13.03.2025</t>
-        </is>
-      </c>
-      <c r="I18" t="inlineStr">
-        <is>
-          <t>08:00</t>
-        </is>
-      </c>
-      <c r="J18" t="inlineStr">
         <is>
           <t>00:00:00</t>
         </is>
